--- a/biology/Zoologie/Artémie/Artémie.xlsx
+++ b/biology/Zoologie/Artémie/Artémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A9mie</t>
+          <t>Artémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemia
 Artemia, les Artémies, est un genre de Crustacés, le seul de la famille des Artemiidae. Ce sont des petits crustacés vivant dans les lacs salés, les lagunes et les marais salants. L'espèce la plus connue est Artemia salina.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A9mie</t>
+          <t>Artémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Alireza Asem (2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après Alireza Asem (2010) :
 Artemia franciscana Kellogg, 1906
 Artemia monica Verrill, 1869
 Artemia parthenogenetica Bowen and Sterling, 1978
@@ -524,7 +538,7 @@
 Artemia sinica Cai, 1989
 Artemia tibetiana Abatzopoulos, Bo Zhang, et Patrick Sorgeloos, 1998
 Artemia urmiana Gunther, 1899
-Selon BioLib                    (31 janvier 2019)[3] :
+Selon BioLib                    (31 janvier 2019) :
 Artemia australis Sayce, 1903
 Artemia franciscana Kellogg, 1906
 Artemia gracilis Verrill, 1869
@@ -538,7 +552,7 @@
 Artemia tunisiana Bowen &amp; Sterling, 1978
 Artemia urmiana Günther, 1900
 Artemia westraliensis Sayce, 1903
-Selon Catalogue of Life                                   (31 janvier 2019)[4] et ITIS      (31 janvier 2019)[5] :
+Selon Catalogue of Life                                   (31 janvier 2019) et ITIS      (31 janvier 2019) :
 Artemia franciscana Kellogg, 1906
 Artemia gracilis Verrill, 1869
 Artemia monica Verrill, 1869
@@ -549,7 +563,7 @@
 Artemia tibetiana Abatzopoulos, Bo Zhang, &amp; Patrick Sorgeloos, 1998
 Artemia tunisiana Bowen &amp; Sterling, 1978
 Artemia urmiana Gunther, 1900
-Selon World Register of Marine Species                               (31 janvier 2019)[1] :
+Selon World Register of Marine Species                               (31 janvier 2019) :
 Artemia americana Barrigozzi, 1974
 Artemia bivalens Artom, 1912
 Artemia cagliartiana Samter &amp; Heymons, 1902
@@ -566,9 +580,43 @@
 Artemia tibetiana Abatzopoulos, Zhang &amp; Sorgeloos, 1998
 Artemia univalens Artom, 1912
 Artemia urmiana Günther, 1899
-Artemia westraliensis Sayce, 1903
-Les « Pifises »
-Le magazine Pif Gadget, en 1970, 2004 et mars 2017, et Le Journal de Mickey, en 1996 puis en 2002, ont offert des « Pifises » à leurs lecteurs. Il s'agissait de sachets contenant des œufs d'Artemia salina ; ils reprenaient ainsi (mais sans chercher à tromper les lecteurs) l'escroquerie des « stupéfiants singes de mer », montée dans les années 1950 par Harold von Braunhut.
+Artemia westraliensis Sayce, 1903</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artémie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les « Pifises »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine Pif Gadget, en 1970, 2004 et mars 2017, et Le Journal de Mickey, en 1996 puis en 2002, ont offert des « Pifises » à leurs lecteurs. Il s'agissait de sachets contenant des œufs d'Artemia salina ; ils reprenaient ainsi (mais sans chercher à tromper les lecteurs) l'escroquerie des « stupéfiants singes de mer », montée dans les années 1950 par Harold von Braunhut.
 </t>
         </is>
       </c>
